--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>393001</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海优势精选灵活配置混合</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.95</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -706,25 +786,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.39</v>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>7.54</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3306,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>4.04</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3322,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3243,7 +3244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,17 +3255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3274,14 +3295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3290,14 +3333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.39</v>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3306,14 +3371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.54</v>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3322,14 +3409,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.04</v>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3338,13 +3447,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600808-马钢股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1088</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>138.99</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>77.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6832</t>
+          <t>0.3398</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>159610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>景顺长城中证500增强策略ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>98.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1147</t>
+          <t>0.1098</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>67.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1084</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -715,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>393001</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海优势精选灵活配置混合</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.95</t>
+          <t>69.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -753,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>63.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -791,35 +829,187 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>77.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -834,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +1045,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +1075,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>156.79</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.54</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.4563</t>
+          <t>0.2033</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -923,834 +1113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>005284</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华商可转债债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.04</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8328</t>
+          <t>0.1060</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4691</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1271</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1246</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0647</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0601</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000706</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中邮多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>63.75</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005179</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>信达澳银新起点定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>25.48</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +2504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +2525,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3163,36 +2555,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>156.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>96.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2033</t>
+          <t>5.4563</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3201,36 +2593,834 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>57.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1060</t>
+          <t>0.8328</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3265,7 +3455,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3295,36 +3485,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.42</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3398</t>
+          <t>3.6832</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3333,36 +3523,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159610</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500增强策略ETF</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.35</t>
+          <t>95.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1098</t>
+          <t>0.1147</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3371,36 +3561,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.79</t>
+          <t>95.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.1084</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3409,32 +3599,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69.88</t>
+          <t>71.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3447,36 +3637,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63.82</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3485,187 +3675,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.42</t>
+          <t>97.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519127</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浦银安盛盛世精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>67.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519177</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浦银安盛盛世精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3680,128 +3718,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>